--- a/regionseng/9/agriculture/4. Production of animal housbandry.xlsx
+++ b/regionseng/9/agriculture/4. Production of animal housbandry.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\კახეთი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\კახეთი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -590,8 +590,10 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -641,8 +643,14 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -694,8 +702,14 @@
       <c r="Q3" s="4">
         <v>10</v>
       </c>
+      <c r="R3" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="S3" s="4">
+        <v>14.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,8 +761,14 @@
       <c r="Q4" s="5">
         <v>3.4</v>
       </c>
+      <c r="R4" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="S4" s="5">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -800,8 +820,14 @@
       <c r="Q5" s="5">
         <v>3.1</v>
       </c>
+      <c r="R5" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="S5" s="5">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -853,8 +879,14 @@
       <c r="Q6" s="5">
         <v>1.8</v>
       </c>
+      <c r="R6" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="S6" s="5">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -906,8 +938,14 @@
       <c r="Q7" s="5">
         <v>1.6</v>
       </c>
+      <c r="R7" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -959,8 +997,14 @@
       <c r="Q8" s="5">
         <v>66.400000000000006</v>
       </c>
+      <c r="R8" s="5">
+        <v>59</v>
+      </c>
+      <c r="S8" s="5">
+        <v>63.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1056,14 @@
       <c r="Q9" s="5">
         <v>60.5</v>
       </c>
+      <c r="R9" s="5">
+        <v>53.6</v>
+      </c>
+      <c r="S9" s="5">
+        <v>59.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1115,14 @@
       <c r="Q10" s="5">
         <v>5.9</v>
       </c>
+      <c r="R10" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="S10" s="5">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1174,14 @@
       <c r="Q11" s="5">
         <v>132.69999999999999</v>
       </c>
+      <c r="R11" s="5">
+        <v>133.5</v>
+      </c>
+      <c r="S11" s="5">
+        <v>118.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1171,8 +1233,14 @@
       <c r="Q12" s="5">
         <v>1.2</v>
       </c>
+      <c r="R12" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1224,8 +1292,14 @@
       <c r="Q13" s="5">
         <v>0.2</v>
       </c>
+      <c r="R13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1248,8 +1322,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
